--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
@@ -88,19 +88,19 @@
     <t>hand</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>positive</t>
@@ -1058,25 +1058,25 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7554585152838428</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1084,25 +1084,25 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1136,25 +1136,25 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6728395061728395</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L15">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1162,13 +1162,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6521739130434783</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="10:17">
